--- a/documentation/timemanagment/marte-timemanagement.xlsx
+++ b/documentation/timemanagment/marte-timemanagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625D721-D049-47E0-8C7A-CEE32D1CA253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EDD3B3-4C09-451F-9079-80C6E67CE262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="2460" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Einarbeitung feedback des Seminarleiters -&gt; ER Diagramm</t>
+  </si>
+  <si>
+    <t>Dummy Data für Datenbank</t>
   </si>
 </sst>
 </file>
@@ -672,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -954,6 +957,20 @@
       </c>
       <c r="D19" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13">
+        <v>44504</v>
+      </c>
+      <c r="B20" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timemanagment/marte-timemanagement.xlsx
+++ b/documentation/timemanagment/marte-timemanagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EDD3B3-4C09-451F-9079-80C6E67CE262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426F956B-1BC6-44B6-ADE6-CD460A26936C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1935" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>Datum</t>
   </si>
@@ -171,6 +171,51 @@
   </si>
   <si>
     <t>Dummy Data für Datenbank</t>
+  </si>
+  <si>
+    <t>13/4/2021</t>
+  </si>
+  <si>
+    <t>Teamsitzung Zeitmanagement</t>
+  </si>
+  <si>
+    <t>Besprechung der Backend Issues</t>
+  </si>
+  <si>
+    <t>17/4/2021</t>
+  </si>
+  <si>
+    <t>Topics API implementierung</t>
+  </si>
+  <si>
+    <t>16/4/2021</t>
+  </si>
+  <si>
+    <t>Topics API implementierung -&gt; Verknüpfung mit Database</t>
+  </si>
+  <si>
+    <t>JourFixe - updates der issues / Meilenstein2</t>
+  </si>
+  <si>
+    <t>API: Topics implementation continued + Documentation</t>
+  </si>
+  <si>
+    <t>Topics API &amp; Terms API implementierung + Documentation</t>
+  </si>
+  <si>
+    <t>API Documentation / Tutorials</t>
+  </si>
+  <si>
+    <t>18/4/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topics API &amp; Terms API fix HTTP responses </t>
+  </si>
+  <si>
+    <t>Fertigstellung Topics API; authentifizierung finalisiert (Tests zu diesem Zeitpunkt noch nicht vollständig)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einarbeitung feedback vom Merge-request </t>
   </si>
 </sst>
 </file>
@@ -675,13 +720,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -961,7 +1006,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="13">
-        <v>44504</v>
+        <v>44473</v>
       </c>
       <c r="B20" s="10">
         <v>8.3333333333333329E-2</v>
@@ -970,7 +1015,175 @@
         <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="13">
+        <v>44504</v>
+      </c>
+      <c r="B21" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="13">
+        <v>44534</v>
+      </c>
+      <c r="B22" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13">
+        <v>44534</v>
+      </c>
+      <c r="B23" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="10">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timemanagment/marte-timemanagement.xlsx
+++ b/documentation/timemanagment/marte-timemanagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426F956B-1BC6-44B6-ADE6-CD460A26936C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42842B7-843B-4ABD-A78A-1385CE9D1DDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1935" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -215,7 +215,34 @@
     <t>Fertigstellung Topics API; authentifizierung finalisiert (Tests zu diesem Zeitpunkt noch nicht vollständig)</t>
   </si>
   <si>
-    <t xml:space="preserve">Einarbeitung feedback vom Merge-request </t>
+    <t>19/4/2021</t>
+  </si>
+  <si>
+    <t>Einarbeitung feedback vom Merge-request -&gt; Topics API</t>
+  </si>
+  <si>
+    <t>Einarbeitung feedback vom Merge-request (PATCH methode + 400 error code) -&gt; Topics API</t>
+  </si>
+  <si>
+    <t>21/4/2021</t>
+  </si>
+  <si>
+    <t>Topic API Tests</t>
+  </si>
+  <si>
+    <t>23/4/2021</t>
+  </si>
+  <si>
+    <t>Games API Dokumentation Websockets</t>
+  </si>
+  <si>
+    <t>24/4/2021</t>
+  </si>
+  <si>
+    <t>Websockets API Games</t>
+  </si>
+  <si>
+    <t>Fertigstellung Topics API Tests</t>
   </si>
 </sst>
 </file>
@@ -720,13 +747,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1183,7 +1210,105 @@
         <v>22</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="B33" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="10">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="10">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timemanagment/marte-timemanagement.xlsx
+++ b/documentation/timemanagment/marte-timemanagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42842B7-843B-4ABD-A78A-1385CE9D1DDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481A6EE7-BE30-4B05-9329-4ECDD9BB9D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1935" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4515" yWindow="2070" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <t>Datum</t>
   </si>
@@ -243,6 +243,30 @@
   </si>
   <si>
     <t>Fertigstellung Topics API Tests</t>
+  </si>
+  <si>
+    <t>26/4/2021</t>
+  </si>
+  <si>
+    <t>JourFixe - vorgehensweise</t>
+  </si>
+  <si>
+    <t>27/4/2021</t>
+  </si>
+  <si>
+    <t>Games api</t>
+  </si>
+  <si>
+    <t>29/4/2021</t>
+  </si>
+  <si>
+    <t>30/4/2021</t>
+  </si>
+  <si>
+    <t>JourFixe - Statusupdate im team</t>
+  </si>
+  <si>
+    <t>Fertigstellung games api (tests etc)</t>
   </si>
 </sst>
 </file>
@@ -747,13 +771,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1309,6 +1333,118 @@
       </c>
       <c r="D39" s="3" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="13">
+        <v>44201</v>
+      </c>
+      <c r="B46" s="10">
+        <v>0.1875</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="13">
+        <v>44232</v>
+      </c>
+      <c r="B47" s="10">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timemanagment/marte-timemanagement.xlsx
+++ b/documentation/timemanagment/marte-timemanagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481A6EE7-BE30-4B05-9329-4ECDD9BB9D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F95B4E4-A2CB-402F-A713-8EAA4EEA19CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="2070" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
   <si>
     <t>Datum</t>
   </si>
@@ -267,6 +267,15 @@
   </si>
   <si>
     <t>Fertigstellung games api (tests etc)</t>
+  </si>
+  <si>
+    <t>Jour Fixe - Statusupdate im team</t>
+  </si>
+  <si>
+    <t>Gameplay - Spiellogik implementieren</t>
+  </si>
+  <si>
+    <t>Gameplay - Spiellogik implementieren, mit Hardware Architekt absprechen -&gt; methoden vom Cube implementieren</t>
   </si>
 </sst>
 </file>
@@ -348,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -389,6 +398,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -771,13 +783,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1445,6 +1457,90 @@
       </c>
       <c r="D47" s="3" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="13">
+        <v>44260</v>
+      </c>
+      <c r="B48" s="10">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="13">
+        <v>44352</v>
+      </c>
+      <c r="B49" s="10">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="13">
+        <v>44382</v>
+      </c>
+      <c r="B50" s="10">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="13">
+        <v>44382</v>
+      </c>
+      <c r="B51" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="13">
+        <v>44413</v>
+      </c>
+      <c r="B52" s="10">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="13">
+        <v>44444</v>
+      </c>
+      <c r="B53" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timemanagment/marte-timemanagement.xlsx
+++ b/documentation/timemanagment/marte-timemanagement.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F95B4E4-A2CB-402F-A713-8EAA4EEA19CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9188608-6B95-40C5-A5B3-A6BB7B6A376C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datenerfassung!$A$1:$D$59</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="82">
   <si>
     <t>Datum</t>
   </si>
@@ -276,6 +279,30 @@
   </si>
   <si>
     <t>Gameplay - Spiellogik implementieren, mit Hardware Architekt absprechen -&gt; methoden vom Cube implementieren</t>
+  </si>
+  <si>
+    <t>Gameplay - Spiellogik finalisieren</t>
+  </si>
+  <si>
+    <t>Einarbeiten ins Testdrehbuch, testcases schreiben</t>
+  </si>
+  <si>
+    <t>Testdrehbuch schreiben, weitere dokumentation</t>
+  </si>
+  <si>
+    <t>13/5/2021</t>
+  </si>
+  <si>
+    <t>Finalisierung für Abnahmetests (Doku, bugfixes, Testdrehbuch, mergen, übersetzung frontend, etc.)</t>
+  </si>
+  <si>
+    <t>BugFixing (+ help frontend with backend etc)</t>
+  </si>
+  <si>
+    <t>15/5/2021</t>
+  </si>
+  <si>
+    <t>16/5/2021</t>
   </si>
 </sst>
 </file>
@@ -783,13 +810,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomRight" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1543,7 +1570,106 @@
         <v>73</v>
       </c>
     </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="13">
+        <v>44474</v>
+      </c>
+      <c r="B54" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="13">
+        <v>44474</v>
+      </c>
+      <c r="B55" s="10">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="13">
+        <v>44505</v>
+      </c>
+      <c r="B56" s="10">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="13">
+        <v>44535</v>
+      </c>
+      <c r="B57" s="10">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="10">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D59" xr:uid="{B521B901-17DA-40D9-98D7-DDE3D037E784}"/>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>

--- a/documentation/timemanagment/marte-timemanagement.xlsx
+++ b/documentation/timemanagment/marte-timemanagement.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7EA4BF-6FC5-450A-A9AC-B540D127EDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datenerfassung" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Tätigkeiten" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
+    <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Datenerfassung!$A$1:$D$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datenerfassung!$A$1:$D$59</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,14 +29,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="86">
-  <si>
-    <t xml:space="preserve">Datum</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="91">
+  <si>
+    <t>Datum</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="14"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
@@ -46,278 +51,287 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri (Textkörper)"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[hh:mm]</t>
+      <t>[hh:mm]</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Primäre Tätigkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anmerkung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV-Einheit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teilnahme an Vorbesprechung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teilnahme an WORKSHOP 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Softwarekonzept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team-Vorbesprechung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team-Kennenlernen + Terminfindung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gemeinsames Arbeiten am Softwarekonzept; Terminfindung für weiteres Arbeiten in 2er Gruppen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellen des Klassendiagramms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/03/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teilnahme an WORKSHOP 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feedback zu Konzept im Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22/03/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proseminar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/03/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create ER diagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koordination und Projektmanagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team-meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update ER diagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einarbeitung, Dokumentation lesen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project setup, mysql error debugging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API: Topics implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API: Topics implementation continued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game selection / creation GUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einarbeitung feedback des Seminarleiters -&gt; ER Diagramm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting - updates der issues / Meilenstein1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API: Topics implementation continued + Documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dummy Data für Datenbank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teamsitzung Zeitmanagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/4/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Besprechung der Backend Issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/4/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JourFixe - updates der issues / Meilenstein2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topics API implementierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17/4/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API Documentation / Tutorials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topics API implementierung -&gt; Verknüpfung mit Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topics API &amp; Terms API implementierung + Documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/4/2021</t>
+    <t>Primäre Tätigkeit</t>
+  </si>
+  <si>
+    <t>Anmerkung</t>
+  </si>
+  <si>
+    <t>LV-Einheit</t>
+  </si>
+  <si>
+    <t>Teilnahme an Vorbesprechung</t>
+  </si>
+  <si>
+    <t>Teilnahme an WORKSHOP 1</t>
+  </si>
+  <si>
+    <t>Softwarekonzept</t>
+  </si>
+  <si>
+    <t>Team-Vorbesprechung</t>
+  </si>
+  <si>
+    <t>Team-Kennenlernen + Terminfindung</t>
+  </si>
+  <si>
+    <t>Gemeinsames Arbeiten am Softwarekonzept; Terminfindung für weiteres Arbeiten in 2er Gruppen</t>
+  </si>
+  <si>
+    <t>Erstellen des Klassendiagramms</t>
+  </si>
+  <si>
+    <t>16/03/2021</t>
+  </si>
+  <si>
+    <t>Teilnahme an WORKSHOP 2</t>
+  </si>
+  <si>
+    <t>Feedback zu Konzept im Team</t>
+  </si>
+  <si>
+    <t>22/03/2021</t>
+  </si>
+  <si>
+    <t>Proseminar</t>
+  </si>
+  <si>
+    <t>28/03/2021</t>
+  </si>
+  <si>
+    <t>Create ER diagram</t>
+  </si>
+  <si>
+    <t>Koordination und Projektmanagement</t>
+  </si>
+  <si>
+    <t>Team-meeting</t>
+  </si>
+  <si>
+    <t>Update ER diagram</t>
+  </si>
+  <si>
+    <t>Einarbeitung, Dokumentation lesen</t>
+  </si>
+  <si>
+    <t>Project setup, mysql error debugging</t>
+  </si>
+  <si>
+    <t>Implementierung</t>
+  </si>
+  <si>
+    <t>API: Topics implementation</t>
+  </si>
+  <si>
+    <t>API: Topics implementation continued</t>
+  </si>
+  <si>
+    <t>Game selection / creation GUI</t>
+  </si>
+  <si>
+    <t>Einarbeitung feedback des Seminarleiters -&gt; ER Diagramm</t>
+  </si>
+  <si>
+    <t>Meeting - updates der issues / Meilenstein1</t>
+  </si>
+  <si>
+    <t>API: Topics implementation continued + Documentation</t>
+  </si>
+  <si>
+    <t>Dummy Data für Datenbank</t>
+  </si>
+  <si>
+    <t>Teamsitzung Zeitmanagement</t>
+  </si>
+  <si>
+    <t>13/4/2021</t>
+  </si>
+  <si>
+    <t>Besprechung der Backend Issues</t>
+  </si>
+  <si>
+    <t>16/4/2021</t>
+  </si>
+  <si>
+    <t>JourFixe - updates der issues / Meilenstein2</t>
+  </si>
+  <si>
+    <t>Topics API implementierung</t>
+  </si>
+  <si>
+    <t>17/4/2021</t>
+  </si>
+  <si>
+    <t>API Documentation / Tutorials</t>
+  </si>
+  <si>
+    <t>Topics API implementierung -&gt; Verknüpfung mit Database</t>
+  </si>
+  <si>
+    <t>Topics API &amp; Terms API implementierung + Documentation</t>
+  </si>
+  <si>
+    <t>18/4/2021</t>
   </si>
   <si>
     <t xml:space="preserve">Topics API &amp; Terms API fix HTTP responses </t>
   </si>
   <si>
-    <t xml:space="preserve">Fertigstellung Topics API; authentifizierung finalisiert (Tests zu diesem Zeitpunkt noch nicht vollständig)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einarbeitung feedback vom Merge-request -&gt; Topics API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/4/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einarbeitung feedback vom Merge-request (PATCH methode + 400 error code) -&gt; Topics API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/4/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topic API Tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23/4/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Games API Dokumentation Websockets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/4/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Websockets API Games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fertigstellung Topics API Tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/4/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JourFixe - vorgehensweise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/4/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Games api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/4/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/4/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JourFixe - Statusupdate im team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fertigstellung games api (tests etc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jour Fixe - Statusupdate im team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gameplay - Spiellogik implementieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gameplay - Spiellogik implementieren, mit Hardware Architekt absprechen -&gt; methoden vom Cube implementieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gameplay - Spiellogik finalisieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einarbeiten ins Testdrehbuch, testcases schreiben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konfiguration und Deployment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testdrehbuch schreiben, weitere dokumentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/5/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalisierung für Abnahmetests (Doku, bugfixes, Testdrehbuch, mergen, übersetzung frontend, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/5/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BugFixing (+ help frontend with backend etc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/5/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17/5/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systemtest (fremdes System)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnahmetest Team 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/05/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feedback von Team 2 in Issues umwandeln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bezeichnung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abschlussbericht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abschlusspräsentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software/System Design und Architektur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests</t>
+    <t>Fertigstellung Topics API; authentifizierung finalisiert (Tests zu diesem Zeitpunkt noch nicht vollständig)</t>
+  </si>
+  <si>
+    <t>Einarbeitung feedback vom Merge-request -&gt; Topics API</t>
+  </si>
+  <si>
+    <t>19/4/2021</t>
+  </si>
+  <si>
+    <t>Einarbeitung feedback vom Merge-request (PATCH methode + 400 error code) -&gt; Topics API</t>
+  </si>
+  <si>
+    <t>21/4/2021</t>
+  </si>
+  <si>
+    <t>Topic API Tests</t>
+  </si>
+  <si>
+    <t>23/4/2021</t>
+  </si>
+  <si>
+    <t>Games API Dokumentation Websockets</t>
+  </si>
+  <si>
+    <t>24/4/2021</t>
+  </si>
+  <si>
+    <t>Websockets API Games</t>
+  </si>
+  <si>
+    <t>Fertigstellung Topics API Tests</t>
+  </si>
+  <si>
+    <t>26/4/2021</t>
+  </si>
+  <si>
+    <t>JourFixe - vorgehensweise</t>
+  </si>
+  <si>
+    <t>27/4/2021</t>
+  </si>
+  <si>
+    <t>Games api</t>
+  </si>
+  <si>
+    <t>29/4/2021</t>
+  </si>
+  <si>
+    <t>30/4/2021</t>
+  </si>
+  <si>
+    <t>JourFixe - Statusupdate im team</t>
+  </si>
+  <si>
+    <t>Fertigstellung games api (tests etc)</t>
+  </si>
+  <si>
+    <t>Jour Fixe - Statusupdate im team</t>
+  </si>
+  <si>
+    <t>Gameplay - Spiellogik implementieren</t>
+  </si>
+  <si>
+    <t>Gameplay - Spiellogik implementieren, mit Hardware Architekt absprechen -&gt; methoden vom Cube implementieren</t>
+  </si>
+  <si>
+    <t>Gameplay - Spiellogik finalisieren</t>
+  </si>
+  <si>
+    <t>Einarbeiten ins Testdrehbuch, testcases schreiben</t>
+  </si>
+  <si>
+    <t>Konfiguration und Deployment</t>
+  </si>
+  <si>
+    <t>Testdrehbuch schreiben, weitere dokumentation</t>
+  </si>
+  <si>
+    <t>13/5/2021</t>
+  </si>
+  <si>
+    <t>Finalisierung für Abnahmetests (Doku, bugfixes, Testdrehbuch, mergen, übersetzung frontend, etc.)</t>
+  </si>
+  <si>
+    <t>15/5/2021</t>
+  </si>
+  <si>
+    <t>BugFixing (+ help frontend with backend etc)</t>
+  </si>
+  <si>
+    <t>16/5/2021</t>
+  </si>
+  <si>
+    <t>17/5/2021</t>
+  </si>
+  <si>
+    <t>Systemtest (fremdes System)</t>
+  </si>
+  <si>
+    <t>Abnahmetest Team 4</t>
+  </si>
+  <si>
+    <t>28/05/2021</t>
+  </si>
+  <si>
+    <t>Feedback von Team 2 in Issues umwandeln</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>Abschlussbericht</t>
+  </si>
+  <si>
+    <t>Abschlusspräsentation</t>
+  </si>
+  <si>
+    <t>Software/System Design und Architektur</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>31/5/2021</t>
+  </si>
+  <si>
+    <t>Jourfixe</t>
+  </si>
+  <si>
+    <t>Statistics implementation (backend logik + hilfe beim frontend)</t>
+  </si>
+  <si>
+    <t>13/06/2021</t>
+  </si>
+  <si>
+    <t>Statistics fixes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY;@"/>
-    <numFmt numFmtId="166" formatCode="H:MM"/>
-    <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="169" formatCode="D\-MMM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -326,22 +340,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -352,7 +351,6 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri (Textkörper)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -363,7 +361,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -371,7 +369,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -394,7 +392,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -402,109 +400,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -563,40 +511,343 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
-      <selection pane="bottomRight" activeCell="C65" activeCellId="0" sqref="C65"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="37.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="94.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11"/>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="94.75" style="3" customWidth="1"/>
+    <col min="5" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="31.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -610,12 +861,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+    <row r="2" spans="1:4">
+      <c r="A2" s="9">
         <v>44256</v>
       </c>
-      <c r="B2" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B2" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>4</v>
@@ -624,12 +875,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+    <row r="3" spans="1:4">
+      <c r="A3" s="13">
         <v>44256</v>
       </c>
-      <c r="B3" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B3" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -638,12 +889,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+    <row r="4" spans="1:4">
+      <c r="A4" s="9">
         <v>44262</v>
       </c>
-      <c r="B4" s="10" t="n">
-        <v>0.0277777777777778</v>
+      <c r="B4" s="10">
+        <v>2.7777777777777801E-2</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>7</v>
@@ -652,12 +903,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5" s="9">
         <v>44263</v>
       </c>
-      <c r="B5" s="10" t="n">
-        <v>0.0555555555555556</v>
+      <c r="B5" s="10">
+        <v>5.5555555555555601E-2</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>4</v>
@@ -666,11 +917,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+    <row r="6" spans="1:4">
+      <c r="A6" s="9">
         <v>44267</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="10">
         <v>0.15625</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -680,12 +931,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+    <row r="7" spans="1:4">
+      <c r="A7" s="9">
         <v>44269</v>
       </c>
-      <c r="B7" s="10" t="n">
-        <v>0.0625</v>
+      <c r="B7" s="10">
+        <v>6.25E-2</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>7</v>
@@ -694,12 +945,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B8" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>4</v>
@@ -708,12 +959,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10" t="n">
-        <v>0.0659722222222222</v>
+      <c r="B9" s="10">
+        <v>6.5972222222222196E-2</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>7</v>
@@ -722,12 +973,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="10" t="n">
-        <v>0.0625</v>
+      <c r="B10" s="10">
+        <v>6.25E-2</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -736,12 +987,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4">
       <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B11" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
@@ -750,12 +1001,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10" t="n">
-        <v>0.0416666666666667</v>
+      <c r="B12" s="10">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
@@ -764,12 +1015,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="10" t="n">
-        <v>0.0208333333333333</v>
+      <c r="B13" s="10">
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -778,12 +1029,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" s="13">
         <v>44320</v>
       </c>
-      <c r="B14" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B14" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -792,11 +1043,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" s="13">
         <v>44381</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="10">
         <v>0.1875</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -806,12 +1057,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" s="13">
         <v>44412</v>
       </c>
-      <c r="B16" s="10" t="n">
-        <v>0.0416666666666667</v>
+      <c r="B16" s="10">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -820,12 +1071,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" s="13">
         <v>44412</v>
       </c>
-      <c r="B17" s="10" t="n">
-        <v>0.166666666666667</v>
+      <c r="B17" s="10">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
@@ -834,12 +1085,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" s="13">
         <v>44443</v>
       </c>
-      <c r="B18" s="10" t="n">
-        <v>0.0138888888888889</v>
+      <c r="B18" s="10">
+        <v>1.38888888888889E-2</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
@@ -848,12 +1099,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" s="13">
         <v>44473</v>
       </c>
-      <c r="B19" s="10" t="n">
-        <v>0.0625</v>
+      <c r="B19" s="10">
+        <v>6.25E-2</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
@@ -862,12 +1113,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" s="13">
         <v>44473</v>
       </c>
-      <c r="B20" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B20" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>24</v>
@@ -876,12 +1127,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="13">
         <v>44504</v>
       </c>
-      <c r="B21" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B21" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>24</v>
@@ -890,12 +1141,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="13">
         <v>44534</v>
       </c>
-      <c r="B22" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B22" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -904,12 +1155,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="13">
         <v>44534</v>
       </c>
-      <c r="B23" s="10" t="n">
-        <v>0.0625</v>
+      <c r="B23" s="10">
+        <v>6.25E-2</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
@@ -918,12 +1169,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="10" t="n">
-        <v>0.0208333333333333</v>
+      <c r="B24" s="10">
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
@@ -932,12 +1183,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="10" t="n">
-        <v>0.03125</v>
+      <c r="B25" s="10">
+        <v>3.125E-2</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>19</v>
@@ -946,11 +1197,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="10" t="n">
+      <c r="B26" s="10">
         <v>0.104166666666667</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -960,12 +1211,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B27" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>24</v>
@@ -974,12 +1225,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="10" t="n">
-        <v>0.166666666666667</v>
+      <c r="B28" s="10">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>24</v>
@@ -988,12 +1239,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="10" t="n">
-        <v>0.208333333333333</v>
+      <c r="B29" s="10">
+        <v>0.20833333333333301</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>24</v>
@@ -1002,11 +1253,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="10" t="n">
+      <c r="B30" s="10">
         <v>0.125</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1016,11 +1267,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="10" t="n">
+      <c r="B31" s="10">
         <v>0.125</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1030,12 +1281,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B32" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>24</v>
@@ -1044,12 +1295,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="10" t="n">
-        <v>0.0416666666666667</v>
+      <c r="B33" s="10">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>24</v>
@@ -1058,12 +1309,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="10" t="n">
-        <v>0.208333333333333</v>
+      <c r="B34" s="10">
+        <v>0.20833333333333301</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>24</v>
@@ -1072,12 +1323,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="10" t="n">
-        <v>0.0625</v>
+      <c r="B35" s="10">
+        <v>6.25E-2</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>19</v>
@@ -1086,11 +1337,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="10" t="n">
+      <c r="B36" s="10">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1100,12 +1351,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B37" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>22</v>
@@ -1114,12 +1365,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="10" t="n">
-        <v>0.166666666666667</v>
+      <c r="B38" s="10">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>24</v>
@@ -1128,12 +1379,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B39" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>24</v>
@@ -1142,12 +1393,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B40" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>4</v>
@@ -1156,12 +1407,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="10" t="n">
-        <v>0.0208333333333333</v>
+      <c r="B41" s="10">
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>19</v>
@@ -1170,12 +1421,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="10" t="n">
-        <v>0.0416666666666667</v>
+      <c r="B42" s="10">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>24</v>
@@ -1184,11 +1435,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="10" t="n">
+      <c r="B43" s="10">
         <v>0.125</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1198,11 +1449,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="10" t="n">
+      <c r="B44" s="10">
         <v>0.25</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1212,12 +1463,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="10" t="n">
-        <v>0.0208333333333333</v>
+      <c r="B45" s="10">
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>19</v>
@@ -1226,11 +1477,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="13">
         <v>44201</v>
       </c>
-      <c r="B46" s="10" t="n">
+      <c r="B46" s="10">
         <v>0.1875</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -1240,12 +1491,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="13">
         <v>44232</v>
       </c>
-      <c r="B47" s="10" t="n">
-        <v>0.166666666666667</v>
+      <c r="B47" s="10">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>24</v>
@@ -1254,12 +1505,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="13">
         <v>44260</v>
       </c>
-      <c r="B48" s="10" t="n">
-        <v>0.03125</v>
+      <c r="B48" s="10">
+        <v>3.125E-2</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>19</v>
@@ -1268,12 +1519,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="13">
         <v>44352</v>
       </c>
-      <c r="B49" s="10" t="n">
-        <v>0.166666666666667</v>
+      <c r="B49" s="10">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>24</v>
@@ -1282,12 +1533,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="13">
         <v>44382</v>
       </c>
-      <c r="B50" s="10" t="n">
-        <v>0.291666666666667</v>
+      <c r="B50" s="10">
+        <v>0.29166666666666702</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>24</v>
@@ -1296,12 +1547,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="13">
         <v>44382</v>
       </c>
-      <c r="B51" s="10" t="n">
-        <v>0.0416666666666667</v>
+      <c r="B51" s="10">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
@@ -1310,11 +1561,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="13">
         <v>44413</v>
       </c>
-      <c r="B52" s="10" t="n">
+      <c r="B52" s="10">
         <v>0.104166666666667</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -1324,11 +1575,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="13">
         <v>44444</v>
       </c>
-      <c r="B53" s="10" t="n">
+      <c r="B53" s="10">
         <v>0.3125</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -1338,12 +1589,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="13">
         <v>44474</v>
       </c>
-      <c r="B54" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B54" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
@@ -1352,12 +1603,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="13">
         <v>44474</v>
       </c>
-      <c r="B55" s="10" t="n">
-        <v>0.208333333333333</v>
+      <c r="B55" s="10">
+        <v>0.20833333333333301</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>24</v>
@@ -1366,12 +1617,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="13">
         <v>44505</v>
       </c>
-      <c r="B56" s="10" t="n">
-        <v>0.145833333333333</v>
+      <c r="B56" s="10">
+        <v>0.14583333333333301</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>22</v>
@@ -1380,12 +1631,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="13">
         <v>44535</v>
       </c>
-      <c r="B57" s="10" t="n">
-        <v>0.270833333333333</v>
+      <c r="B57" s="10">
+        <v>0.27083333333333298</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>68</v>
@@ -1394,11 +1645,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="10" t="n">
+      <c r="B58" s="10">
         <v>0.5</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -1408,12 +1659,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="10" t="n">
-        <v>0.166666666666667</v>
+      <c r="B59" s="10">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>24</v>
@@ -1422,11 +1673,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="10" t="n">
+      <c r="B60" s="10">
         <v>0.125</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -1436,12 +1687,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B61" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>76</v>
@@ -1450,12 +1701,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="10" t="n">
-        <v>0.0833333333333333</v>
+      <c r="B62" s="10">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>22</v>
@@ -1464,44 +1715,112 @@
         <v>79</v>
       </c>
     </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="13">
+        <v>44383</v>
+      </c>
+      <c r="B64" s="10">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="13">
+        <v>44475</v>
+      </c>
+      <c r="B65" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="13">
+        <v>44506</v>
+      </c>
+      <c r="B66" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D59"/>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2 C4:C9" type="list">
-      <formula1>Tätigkeiten!$B$2:$B$12</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:D59" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C2 C4:C9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
         <v>80</v>
       </c>
@@ -1509,102 +1828,97 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>14</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>15</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>16</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true" selectLockedCells="true" selectUnlockedCells="true"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/documentation/timemanagment/marte-timemanagement.xlsx
+++ b/documentation/timemanagment/marte-timemanagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7EA4BF-6FC5-450A-A9AC-B540D127EDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3545B9-5F6E-419A-98BC-24A2E0A800A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="96">
   <si>
     <t>Datum</t>
   </si>
@@ -322,6 +322,21 @@
   </si>
   <si>
     <t>Statistics fixes</t>
+  </si>
+  <si>
+    <t>14/06/2021</t>
+  </si>
+  <si>
+    <t>16/06/2021</t>
+  </si>
+  <si>
+    <t>Abschlussbericht verfassen</t>
+  </si>
+  <si>
+    <t>17/06/2021</t>
+  </si>
+  <si>
+    <t>Jourfixe - Abschlussbericht</t>
   </si>
 </sst>
 </file>
@@ -829,13 +844,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
-      <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomRight" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1783,6 +1798,48 @@
       </c>
       <c r="D67" s="3" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
